--- a/result/problem_1/erf/result_5.xlsx
+++ b/result/problem_1/erf/result_5.xlsx
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1546</v>
+        <v>816</v>
       </c>
       <c r="E4" t="n">
         <v>2250</v>
@@ -545,7 +545,7 @@
         <v>3333</v>
       </c>
       <c r="D5" t="n">
-        <v>5437</v>
+        <v>4149</v>
       </c>
       <c r="E5" t="n">
         <v>11250</v>
@@ -634,10 +634,10 @@
         <v>11472003</v>
       </c>
       <c r="C9" t="n">
-        <v>136</v>
+        <v>816</v>
       </c>
       <c r="D9" t="n">
-        <v>1410</v>
+        <v>1546</v>
       </c>
       <c r="E9" t="n">
         <v>2250</v>
@@ -680,10 +680,10 @@
         <v>11490013</v>
       </c>
       <c r="C11" t="n">
-        <v>3897</v>
+        <v>4879</v>
       </c>
       <c r="D11" t="n">
-        <v>5155</v>
+        <v>5437</v>
       </c>
       <c r="E11" t="n">
         <v>11250</v>
@@ -703,10 +703,10 @@
         <v>11490014</v>
       </c>
       <c r="C12" t="n">
-        <v>3469</v>
+        <v>4149</v>
       </c>
       <c r="D12" t="n">
-        <v>5301</v>
+        <v>4879</v>
       </c>
       <c r="E12" t="n">
         <v>11250</v>
